--- a/assets/stages/maps/MapEditor/Room16.xlsx
+++ b/assets/stages/maps/MapEditor/Room16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2782237-4F3B-4752-A22D-E04CA2BBE0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB13951-3339-46BE-8E43-DB8909E8F1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2957,14 +2957,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01B434A-9F93-458F-8DC7-5885A0DE576B}">
-  <dimension ref="A1"/>
+  <dimension ref="AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="32:32" x14ac:dyDescent="0.25">
+      <c r="AF4">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2972,12 +2978,223 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8B746E-720F-466C-9F93-361578F92B45}">
-  <dimension ref="A1"/>
+  <dimension ref="L8:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
